--- a/tools/HDS/hds-v2023-A.xlsx
+++ b/tools/HDS/hds-v2023-A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/HDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5766D5-AE45-4A4E-9A5B-A4A6B1918E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A5F22D-00B0-1349-8708-B10566C08D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="3700" windowWidth="26840" windowHeight="15940" activeTab="1" xr2:uid="{16ECAE7A-C0DA-E141-9634-76BF9152715F}"/>
+    <workbookView xWindow="5100" yWindow="3700" windowWidth="26840" windowHeight="15940" xr2:uid="{16ECAE7A-C0DA-E141-9634-76BF9152715F}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
@@ -422,9 +422,6 @@
     <t>tab</t>
   </si>
   <si>
-    <t>urn:intuitem:risk:library:hds-v2023-A</t>
-  </si>
-  <si>
     <t>fr</t>
   </si>
   <si>
@@ -441,9 +438,6 @@
   </si>
   <si>
     <t>Agence du Numérique en Santé</t>
-  </si>
-  <si>
-    <t>urn:intuitem:risk:framework:hds-v2023-A</t>
   </si>
   <si>
     <t>HDS</t>
@@ -467,6 +461,12 @@
     <t>Le contrat d’hébergement doit en outre prévoir l’accord préalable du Client dans le cas où ces modifications ou évolutions introduites par l’Hébergeur ne respectent pas :
 - Les niveaux de service tels que requis au chapitre 6.5.
 - Les garanties définies aux chapitres 6.2 et  6.9.</t>
+  </si>
+  <si>
+    <t>urn:intuitem:risk:library:hds-v2023-a</t>
+  </si>
+  <si>
+    <t>urn:intuitem:risk:framework:hds-v2023-a</t>
   </si>
 </sst>
 </file>
@@ -890,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA7E42E-AA3B-6348-8512-4B7B73A984B3}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -905,7 +905,7 @@
         <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -921,7 +921,7 @@
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -929,7 +929,7 @@
         <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -937,7 +937,7 @@
         <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -945,7 +945,7 @@
         <v>116</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -953,7 +953,7 @@
         <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -961,7 +961,7 @@
         <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -977,7 +977,7 @@
         <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -985,7 +985,7 @@
         <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -993,7 +993,7 @@
         <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1001,7 +1001,7 @@
         <v>124</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1009,10 +1009,10 @@
         <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A74EB2-E0D1-6047-A547-D24951F96A44}">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="144" workbookViewId="0">
+    <sheetView zoomScale="144" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1039,19 +1039,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1906,7 +1906,7 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="32" x14ac:dyDescent="0.2">
